--- a/biology/Médecine/Dysgraphie/Dysgraphie.xlsx
+++ b/biology/Médecine/Dysgraphie/Dysgraphie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La dysgraphie est une difficulté à accomplir les gestes particuliers de l'écriture[1], contrairement à l'agraphie qui est une perte complète de la capacité à écrire. Ces troubles surviennent indépendamment des capacités à lire et ne sont pas liés à un trouble psychologique[2]. La dysgraphie est un handicap de transcription, ce qui signifie que c'est un trouble graphique associé à des gestes graphiques handicapants, au codage orthographique (orthographe), et au mouvement des doigts lors de l'écriture[2]. Ce trouble peut s'accompagner d'autres troubles comme le trouble de la parole, de déficit de l'attention, ou dyspraxie développementale[3]. Dans le Manuel diagnostique et statistique des troubles mentaux (DSM-IV), la dysgraphie est caractérisée par un trouble d'apprentissage dans la catégorie des expressions écrites. Le terme dysgraphie vient des mots grecs dys signifiant « handicap » et graphia, « écrire des lettres avec la main[2]. »
-Selon le neuropsychiatre français Julian de Ajuriaguerra, est dysgraphique « un enfant chez qui la qualité de l’écriture est déficiente alors qu’aucun déficit neurologique ou intellectuel n’explique cette déficience[4]. »
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La dysgraphie est une difficulté à accomplir les gestes particuliers de l'écriture, contrairement à l'agraphie qui est une perte complète de la capacité à écrire. Ces troubles surviennent indépendamment des capacités à lire et ne sont pas liés à un trouble psychologique. La dysgraphie est un handicap de transcription, ce qui signifie que c'est un trouble graphique associé à des gestes graphiques handicapants, au codage orthographique (orthographe), et au mouvement des doigts lors de l'écriture. Ce trouble peut s'accompagner d'autres troubles comme le trouble de la parole, de déficit de l'attention, ou dyspraxie développementale. Dans le Manuel diagnostique et statistique des troubles mentaux (DSM-IV), la dysgraphie est caractérisée par un trouble d'apprentissage dans la catégorie des expressions écrites. Le terme dysgraphie vient des mots grecs dys signifiant « handicap » et graphia, « écrire des lettres avec la main. »
+Selon le neuropsychiatre français Julian de Ajuriaguerra, est dysgraphique « un enfant chez qui la qualité de l’écriture est déficiente alors qu’aucun déficit neurologique ou intellectuel n’explique cette déficience. »
 </t>
         </is>
       </c>
@@ -512,10 +524,12 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il existe trois sous-types connus de la dysgraphie : la dysgraphie dyslexique, la dysgraphie motrice et la dysgraphie spatiale. De façon générale, peu d'informations sont disponibles sur ces différents types de dysgraphie. Certains enfants pourraient associer plusieurs de ces sous-types.
-La dysgraphie est souvent accompagnée d'autres troubles d'apprentissage comme la dyslexie ou le déficit de l'attention[2],[5].
+La dysgraphie est souvent accompagnée d'autres troubles d'apprentissage comme la dyslexie ou le déficit de l'attention,.
 On distingue plusieurs types de dysgraphies :
 les dysgraphies maladroites ;
 les dysgraphies crispées, si l'écriture est raide et le trait tendu ;
@@ -569,6 +583,8 @@
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -594,9 +610,11 @@
           <t>Conséquences</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La dysgraphie est un trouble qui affecte l’écriture dans son tracé. Elle peut apparaître à l’école primaire ou plus tard à n’importe quel moment de la vie. Chez l’enfant ou l’adolescent elle est souvent à l’origine de l’échec scolaire. Chez l’adulte elle atteint la personnalité dans ce qu’elle a de plus intime, l’écriture, et peut entraîner de grandes difficultés tant dans la vie privée que dans la vie professionnelle. Par contre, la dysgraphie, au même titre que la dyslexie, est reconnue comme handicap par les autorités scolaires de certains pays et peut donner lieu à la possibilité d'aménagements raisonnables comme la possibilité d’utiliser le tiers-temps lors des examens[6].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La dysgraphie est un trouble qui affecte l’écriture dans son tracé. Elle peut apparaître à l’école primaire ou plus tard à n’importe quel moment de la vie. Chez l’enfant ou l’adolescent elle est souvent à l’origine de l’échec scolaire. Chez l’adulte elle atteint la personnalité dans ce qu’elle a de plus intime, l’écriture, et peut entraîner de grandes difficultés tant dans la vie privée que dans la vie professionnelle. Par contre, la dysgraphie, au même titre que la dyslexie, est reconnue comme handicap par les autorités scolaires de certains pays et peut donner lieu à la possibilité d'aménagements raisonnables comme la possibilité d’utiliser le tiers-temps lors des examens.
 </t>
         </is>
       </c>
@@ -625,9 +643,11 @@
           <t>Troubles associés</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La dysgraphie est fréquemment associée à la dyslexie qui provoque une mauvaise analyse visuelle et, par conséquent, une mauvaise graphie, mais aussi à la dyspraxie et dans de plus rare cas a une dysorthographie rendant les deux troubles de l'apprentissage plus graves[7].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La dysgraphie est fréquemment associée à la dyslexie qui provoque une mauvaise analyse visuelle et, par conséquent, une mauvaise graphie, mais aussi à la dyspraxie et dans de plus rare cas a une dysorthographie rendant les deux troubles de l'apprentissage plus graves.
 </t>
         </is>
       </c>
@@ -656,9 +676,11 @@
           <t>Diagnostic</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Reprenant les travaux d'Ajuriaguerra et al.[8], l'échelle d’évaluation rapide de l’écriture chez l’enfant (BHK)[9] ou chez l'adolescent (BHK Ado)[10] sont couramment utilisées par les psychomotriciens et les ergothérapeutes. Elles s'inscrivent dans une évaluation globale des compétences pouvant influencer l'écriture au niveau de la qualité et de la vitesse (tonus musculaire, difficulté d'analyse...). Ces bilans sont à réaliser auprès de professionnels paramédicaux diplômé d'état.
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Reprenant les travaux d'Ajuriaguerra et al., l'échelle d’évaluation rapide de l’écriture chez l’enfant (BHK) ou chez l'adolescent (BHK Ado) sont couramment utilisées par les psychomotriciens et les ergothérapeutes. Elles s'inscrivent dans une évaluation globale des compétences pouvant influencer l'écriture au niveau de la qualité et de la vitesse (tonus musculaire, difficulté d'analyse...). Ces bilans sont à réaliser auprès de professionnels paramédicaux diplômé d'état.
 </t>
         </is>
       </c>
@@ -687,12 +709,14 @@
           <t>Traitements</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">Le traitement de la dysgraphie consiste en une rééducation de l'écriture, qui sera à adapter à la fois en fonction du type de dysgraphie présentée par le patient, mais également au patient lui-même.
 La rééducation est possible uniquement si le patient est traité tôt. À partir de la fin du collège, quand l'écriture est acquise depuis des années, la rééducation est inefficace et inutile. Le seul moyen au patient de retrouver une vie normale est de passer à l'ordinateur, et de limiter les écrits manuels.
 Le psychomotricien peut rééduquer la dysgraphie sous toutes ses formes. Il faut travailler sur la décontraction du geste, la posture, la tenue de l’instrument, la forme des lettres, la motricité fine. Le but n’est pas de changer l’écriture de la personne mais de la réconcilier avec l’écrit en lui faisant trouver ou retrouver le plaisir d’écrire.
-La rééducation des troubles graphiques (à l'exception du langage écrit) fait partie du champ de compétences du psychomotricien (selon son décret d'acte) qui détient un diplôme d'état, de l'ergothérapeute (selon son Décret d'acte no 88-659 du 6 mai 1988) qui détient un diplôme d'État, et de l'orthophoniste (Décret no 2002-721 du 2 mai 2002 relatif aux actes professionnels et à l'exercice de la profession). Un enfant dysgraphique peut être pris en charge par un psychomotricien ou un ergothérapeute[11], qui vont évaluer la tâche graphique sous plusieurs modes : évaluation de la composante gestuelle (posture, des coordinations œil main, la qualité du déliement du geste, des coordinations unimanuelles), la composante visuo-spatiale, la composante exécutive (mise en route, alternance et inhibition des paterns (modèles) moteurs automatisés du geste graphique) ainsi que des épreuves multimodales (évaluation de la qualité et quantité/rapidité de l'écriture). Puis, il y a une rééducation en fonction des troubles ciblés par l'évaluation. L'ergothérapeute peut décider de mettre en place une ou des compensation(s) : même si l'enfant acquiert une écriture fonctionnelle à l'issue de la rééducation, elle peut ne pas répondre aux exigences scolaires en termes de lisibilité ou de rapidité et nécessite une compensation en mettant en place l'outil informatique[12]. L'orientation vers l'un ou l'autre de ces professionnels dépendra des objectifs de prise en charge. Enfin l'avénement des tablettes digitales accompagnés de stylets, permet depuis quelques années une façon complémentaire d'analyser et de prendre en charge les difficultés d'écriture. En effet, les tablettes permettent de capturer la dynamique de l'écriture (vitesse, pression, accélération, inclinaison du stylet...) ce qui est très difficile à faire sur papier. Ces informations dynamiques offrent de nouvelles perspectives pour non seulement analyser l'écriture[13],[14] mais aussi pour que l'enfant puisse travailler les aspects fondamentaux de l'écriture (contrôle de la pression, dextérité digitale, tremblement...)[15].
+La rééducation des troubles graphiques (à l'exception du langage écrit) fait partie du champ de compétences du psychomotricien (selon son décret d'acte) qui détient un diplôme d'état, de l'ergothérapeute (selon son Décret d'acte no 88-659 du 6 mai 1988) qui détient un diplôme d'État, et de l'orthophoniste (Décret no 2002-721 du 2 mai 2002 relatif aux actes professionnels et à l'exercice de la profession). Un enfant dysgraphique peut être pris en charge par un psychomotricien ou un ergothérapeute, qui vont évaluer la tâche graphique sous plusieurs modes : évaluation de la composante gestuelle (posture, des coordinations œil main, la qualité du déliement du geste, des coordinations unimanuelles), la composante visuo-spatiale, la composante exécutive (mise en route, alternance et inhibition des paterns (modèles) moteurs automatisés du geste graphique) ainsi que des épreuves multimodales (évaluation de la qualité et quantité/rapidité de l'écriture). Puis, il y a une rééducation en fonction des troubles ciblés par l'évaluation. L'ergothérapeute peut décider de mettre en place une ou des compensation(s) : même si l'enfant acquiert une écriture fonctionnelle à l'issue de la rééducation, elle peut ne pas répondre aux exigences scolaires en termes de lisibilité ou de rapidité et nécessite une compensation en mettant en place l'outil informatique. L'orientation vers l'un ou l'autre de ces professionnels dépendra des objectifs de prise en charge. Enfin l'avénement des tablettes digitales accompagnés de stylets, permet depuis quelques années une façon complémentaire d'analyser et de prendre en charge les difficultés d'écriture. En effet, les tablettes permettent de capturer la dynamique de l'écriture (vitesse, pression, accélération, inclinaison du stylet...) ce qui est très difficile à faire sur papier. Ces informations dynamiques offrent de nouvelles perspectives pour non seulement analyser l'écriture, mais aussi pour que l'enfant puisse travailler les aspects fondamentaux de l'écriture (contrôle de la pression, dextérité digitale, tremblement...).
 Une approche pédagogique est également possible et souvent profitable, en particulier lorsque la dysgraphie n'est pas associée à une dyspraxie importante. Appelée graphopédagogie, elle propose un entraînement régulier afin d'automatiser un geste d'écriture efficace. Elle peut se pratiquer à tout âge.
 Lorsque le patient utilise une compensation (ordinateur en classe, par exemple), la graphopédagogie peut permettre de restaurer une écriture manuscrite partielle, pour que la personne ait à sa disposition plusieurs modalités de prises de notes.
 </t>
@@ -723,7 +747,9 @@
           <t>Aménagements raisonnables</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t xml:space="preserve">Liste non-exhaustive d'aménagements envisageables avec un enfant dysgraphique lors des évaluations à l'école fondamentale :
 Prévenir l’élève et ses tuteurs suffisamment à l’avance et ne pas hésiter à le lui rappeler afin que celui-ci puisse se préparer à l’évaluation.
